--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H2">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.781701072590085</v>
+        <v>0.8254096666666667</v>
       </c>
       <c r="N2">
-        <v>0.781701072590085</v>
+        <v>2.476229</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9632797185740577</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9632797185740578</v>
       </c>
       <c r="Q2">
-        <v>58.13920105454483</v>
+        <v>69.96875391107078</v>
       </c>
       <c r="R2">
-        <v>58.13920105454483</v>
+        <v>629.718785199637</v>
       </c>
       <c r="S2">
-        <v>0.2335289864007734</v>
+        <v>0.2477305825642246</v>
       </c>
       <c r="T2">
-        <v>0.2335289864007734</v>
+        <v>0.2477305825642247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.214133982591</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H3">
-        <v>133.214133982591</v>
+        <v>254.305553</v>
       </c>
       <c r="I3">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J3">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.781701072590085</v>
+        <v>0.03146466666666667</v>
       </c>
       <c r="N3">
-        <v>0.781701072590085</v>
+        <v>0.09439400000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03672028142594227</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03672028142594227</v>
       </c>
       <c r="Q3">
-        <v>104.1336314183507</v>
+        <v>2.667213152209111</v>
       </c>
       <c r="R3">
-        <v>104.1336314183507</v>
+        <v>24.004918369882</v>
       </c>
       <c r="S3">
-        <v>0.4182758096820832</v>
+        <v>0.009443504865893832</v>
       </c>
       <c r="T3">
-        <v>0.4182758096820832</v>
+        <v>0.009443504865893836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.894585517554</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H4">
-        <v>110.894585517554</v>
+        <v>401.04908</v>
       </c>
       <c r="I4">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J4">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.781701072590085</v>
+        <v>0.8254096666666667</v>
       </c>
       <c r="N4">
-        <v>0.781701072590085</v>
+        <v>2.476229</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9632797185740577</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9632797185740578</v>
       </c>
       <c r="Q4">
-        <v>86.68641644350488</v>
+        <v>110.3432624799245</v>
       </c>
       <c r="R4">
-        <v>86.68641644350488</v>
+        <v>993.08936231932</v>
       </c>
       <c r="S4">
-        <v>0.3481952039171433</v>
+        <v>0.3906801131678251</v>
       </c>
       <c r="T4">
-        <v>0.3481952039171433</v>
+        <v>0.3906801131678252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>133.6830266666667</v>
+      </c>
+      <c r="H5">
+        <v>401.04908</v>
+      </c>
+      <c r="I5">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="J5">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03146466666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.09439400000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.03672028142594227</v>
+      </c>
+      <c r="P5">
+        <v>0.03672028142594227</v>
+      </c>
+      <c r="Q5">
+        <v>4.206291873057778</v>
+      </c>
+      <c r="R5">
+        <v>37.85662685752001</v>
+      </c>
+      <c r="S5">
+        <v>0.01489274966183002</v>
+      </c>
+      <c r="T5">
+        <v>0.01489274966183002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>111.16377</v>
+      </c>
+      <c r="H6">
+        <v>333.49131</v>
+      </c>
+      <c r="I6">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J6">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8254096666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.476229</v>
+      </c>
+      <c r="O6">
+        <v>0.9632797185740577</v>
+      </c>
+      <c r="P6">
+        <v>0.9632797185740578</v>
+      </c>
+      <c r="Q6">
+        <v>91.75565034111</v>
+      </c>
+      <c r="R6">
+        <v>825.80085306999</v>
+      </c>
+      <c r="S6">
+        <v>0.3248690228420079</v>
+      </c>
+      <c r="T6">
+        <v>0.324869022842008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>111.16377</v>
+      </c>
+      <c r="H7">
+        <v>333.49131</v>
+      </c>
+      <c r="I7">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J7">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03146466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.09439400000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.03672028142594227</v>
+      </c>
+      <c r="P7">
+        <v>0.03672028142594227</v>
+      </c>
+      <c r="Q7">
+        <v>3.49773096846</v>
+      </c>
+      <c r="R7">
+        <v>31.47957871614</v>
+      </c>
+      <c r="S7">
+        <v>0.01238402689821842</v>
+      </c>
+      <c r="T7">
+        <v>0.01238402689821842</v>
       </c>
     </row>
   </sheetData>
